--- a/biology/Zoologie/Canariphantes_naili/Canariphantes_naili.xlsx
+++ b/biology/Zoologie/Canariphantes_naili/Canariphantes_naili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Canariphantes naili est une espèce d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canariphantes naili est une espèce d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Algérie[1]. Elle se rencontre dans les monts des Ouled Nails, les Aurès et le Djurdjura[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Algérie. Elle se rencontre dans les monts des Ouled Nails, les Aurès et le Djurdjura.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bosmans &amp; Bouragba, 1992 : Trois nouvelles Linyphiidae de l'Atlas Algérien, avec la description du mâle de Lepthyphantes djazairi Bosmans, et la redescription de Lepthyphantes homonymus Denis (Araneae). Bulletin et Annales de la Société Entomologique de Belgique, vol. 128, p. 245-262.</t>
         </is>
